--- a/rtw_excel_report/report_quotation_oversea/quotation_oversea.xlsx
+++ b/rtw_excel_report/report_quotation_oversea/quotation_oversea.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_quotation_oversea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9A90E2-3477-4D73-BB20-2BF75B9C6BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3435AF28-37D5-433E-BF4B-10079B5B356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3220" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="50">
   <si>
     <t>納品希望⽇：</t>
   </si>
@@ -108,21 +108,6 @@
     <t>MAIN OFFICE</t>
   </si>
   <si>
-    <t>RITZWELL &amp; CO.</t>
-  </si>
-  <si>
-    <t>5-2-9 ITAZUKE HAKATA-KU</t>
-  </si>
-  <si>
-    <t>FUKUOKA,812-0888 JAPAN</t>
-  </si>
-  <si>
-    <t>TEL: +81 92 584 2240 FAX: +81 92 584 2241</t>
-  </si>
-  <si>
-    <t>E-mail: info@ritzwell.com</t>
-  </si>
-  <si>
     <t>SALES TERMS AND CONDITIONS</t>
   </si>
   <si>
@@ -189,19 +174,23 @@
   <si>
     <t>The contract shall be governed as to all matters, including validity, construction and performance by and under the laws of Japan.</t>
   </si>
-  <si>
-    <t>s</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -584,283 +573,284 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{2DD15F40-3649-4249-99C1-76A935A448B0}"/>
@@ -31747,15 +31737,15 @@
     <row r="5" spans="2:14" ht="18" customHeight="1">
       <c r="B5" s="78"/>
       <c r="C5" s="75"/>
-      <c r="D5" s="100" t="s">
+      <c r="D5" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="75"/>
       <c r="L5" s="76"/>
     </row>
@@ -31780,89 +31770,77 @@
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
       <c r="F7" s="75"/>
-      <c r="G7" s="101"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="101"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="101"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
       <c r="L7" s="76"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1">
       <c r="B8" s="78"/>
-      <c r="C8" s="80" t="s">
-        <v>28</v>
-      </c>
+      <c r="C8" s="80"/>
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
       <c r="L8" s="76"/>
-      <c r="N8" s="86" t="s">
-        <v>55</v>
-      </c>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1">
       <c r="B9" s="78"/>
-      <c r="C9" s="74" t="s">
-        <v>29</v>
-      </c>
+      <c r="C9" s="107"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
       <c r="L9" s="76"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1">
       <c r="B10" s="78"/>
-      <c r="C10" s="74" t="s">
-        <v>30</v>
-      </c>
+      <c r="C10" s="107"/>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="103"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="100"/>
       <c r="L10" s="76"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1">
       <c r="B11" s="78"/>
-      <c r="C11" s="74" t="s">
-        <v>31</v>
-      </c>
+      <c r="C11" s="107"/>
       <c r="D11" s="75"/>
       <c r="E11" s="75"/>
       <c r="F11" s="75"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="76"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1">
       <c r="B12" s="78"/>
-      <c r="C12" s="74" t="s">
-        <v>32</v>
-      </c>
+      <c r="C12" s="107"/>
       <c r="D12" s="75"/>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="L12" s="76"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
@@ -31871,11 +31849,11 @@
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="103"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="100"/>
       <c r="L13" s="76"/>
     </row>
     <row r="14" spans="2:14" ht="24.75" customHeight="1">
@@ -31884,218 +31862,218 @@
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="103"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="103"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="100"/>
       <c r="L14" s="76"/>
     </row>
     <row r="15" spans="2:14" ht="25.5" customHeight="1" thickBot="1">
       <c r="B15" s="78"/>
-      <c r="C15" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
+      <c r="C15" s="101" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="102"/>
       <c r="L15" s="76"/>
     </row>
     <row r="16" spans="2:14" ht="50.1" customHeight="1">
       <c r="B16" s="78"/>
       <c r="C16" s="84"/>
       <c r="D16" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="106"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
-      <c r="J16" s="106"/>
-      <c r="K16" s="106"/>
+        <v>29</v>
+      </c>
+      <c r="E16" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="103"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
       <c r="L16" s="76"/>
     </row>
     <row r="17" spans="2:12" ht="50.1" customHeight="1">
       <c r="B17" s="78"/>
       <c r="C17" s="84"/>
       <c r="D17" s="77" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="99" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+      <c r="J17" s="95"/>
+      <c r="K17" s="95"/>
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="2:12" ht="50.1" customHeight="1">
       <c r="B18" s="78"/>
       <c r="C18" s="75"/>
       <c r="D18" s="79" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="99" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
+        <v>33</v>
+      </c>
+      <c r="E18" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="2:12" ht="50.1" customHeight="1">
       <c r="B19" s="78"/>
       <c r="D19" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="99" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
+        <v>35</v>
+      </c>
+      <c r="E19" s="95" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
       <c r="L19" s="76"/>
     </row>
     <row r="20" spans="2:12" ht="50.1" customHeight="1">
       <c r="B20" s="78"/>
       <c r="D20" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="99" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="99"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="99"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="99"/>
-      <c r="K20" s="99"/>
+        <v>37</v>
+      </c>
+      <c r="E20" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="95"/>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="2:12" ht="50.1" customHeight="1">
       <c r="B21" s="78"/>
       <c r="D21" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="99" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="95"/>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1">
       <c r="B22" s="78"/>
       <c r="D22" s="79" t="s">
-        <v>46</v>
-      </c>
-      <c r="E22" s="99" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99"/>
+        <v>41</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="2:12" ht="50.1" customHeight="1">
       <c r="B23" s="78"/>
       <c r="D23" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="E23" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="99"/>
+        <v>43</v>
+      </c>
+      <c r="E23" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="H23" s="95"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="76"/>
     </row>
     <row r="24" spans="2:12" ht="50.1" customHeight="1">
       <c r="B24" s="78"/>
       <c r="D24" s="79" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
+        <v>44</v>
+      </c>
+      <c r="E24" s="95" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="H24" s="95"/>
+      <c r="I24" s="95"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="95"/>
       <c r="L24" s="76"/>
     </row>
     <row r="25" spans="2:12" ht="50.1" customHeight="1">
       <c r="B25" s="78"/>
       <c r="D25" s="77" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>52</v>
-      </c>
-      <c r="F25" s="98"/>
-      <c r="G25" s="98"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
+        <v>46</v>
+      </c>
+      <c r="E25" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="106"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="76"/>
     </row>
     <row r="26" spans="2:12" ht="50.1" customHeight="1">
       <c r="B26" s="78"/>
       <c r="D26" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="97" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
+        <v>48</v>
+      </c>
+      <c r="E26" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="106"/>
       <c r="L26" s="76"/>
     </row>
     <row r="27" spans="2:12" ht="50.1" customHeight="1">
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
       <c r="D27" s="79"/>
-      <c r="E27" s="95"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
+      <c r="E27" s="104"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
       <c r="L27" s="75"/>
     </row>
     <row r="28" spans="2:12" ht="50.1" customHeight="1">
@@ -35859,6 +35837,11 @@
     <row r="334" spans="2:12" ht="50.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="E22:K22"/>
     <mergeCell ref="D5:J5"/>
@@ -35870,11 +35853,6 @@
     <mergeCell ref="E18:K18"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="E16:K16"/>
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E24:K24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{D83DC5D1-8AEE-4523-A071-C432E3A19226}"/>

--- a/rtw_excel_report/report_quotation_oversea/quotation_oversea.xlsx
+++ b/rtw_excel_report/report_quotation_oversea/quotation_oversea.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\odoo\rtw-custom\rtw_excel_report\report_quotation_oversea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3435AF28-37D5-433E-BF4B-10079B5B356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257ED2F0-7B44-4485-9186-E494633C5F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="60" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="555" windowWidth="29040" windowHeight="15465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="御見積書（海外）" sheetId="1" r:id="rId1"/>
@@ -798,6 +798,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -818,13 +819,20 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -843,14 +851,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{2DD15F40-3649-4249-99C1-76A935A448B0}"/>
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:Z1059"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1263,7 +1263,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="55"/>
       <c r="H3" s="55"/>
-      <c r="I3" s="94"/>
+      <c r="I3" s="95"/>
       <c r="J3" s="25"/>
       <c r="K3" s="25"/>
       <c r="L3" s="25"/>
@@ -1284,7 +1284,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="55"/>
       <c r="H4" s="55"/>
-      <c r="I4" s="94"/>
+      <c r="I4" s="95"/>
       <c r="J4" s="25"/>
       <c r="K4" s="25"/>
       <c r="L4" s="25"/>
@@ -1307,7 +1307,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
-      <c r="I5" s="94"/>
+      <c r="I5" s="95"/>
       <c r="J5" s="25"/>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
@@ -1318,11 +1318,11 @@
       <c r="Q5" s="25"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="52" t="s">
         <v>5</v>
       </c>
@@ -1330,7 +1330,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
-      <c r="I6" s="94"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="25"/>
       <c r="K6" s="25"/>
       <c r="L6" s="25"/>
@@ -1353,7 +1353,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="55"/>
       <c r="H7" s="55"/>
-      <c r="I7" s="94"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
@@ -1372,7 +1372,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
-      <c r="I8" s="94"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -1395,7 +1395,7 @@
       <c r="F9" s="54"/>
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
-      <c r="I9" s="94"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
@@ -1414,9 +1414,9 @@
       <c r="D10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
       <c r="H10" s="54"/>
       <c r="I10" s="21"/>
       <c r="J10" s="25"/>
@@ -1435,9 +1435,9 @@
       <c r="B11" s="67"/>
       <c r="C11" s="50"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="54"/>
       <c r="I11" s="21"/>
       <c r="J11" s="25"/>
@@ -1454,9 +1454,9 @@
       <c r="B12" s="32"/>
       <c r="C12" s="19"/>
       <c r="D12" s="31"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
       <c r="H12" s="54"/>
       <c r="I12" s="36"/>
       <c r="J12" s="25"/>
@@ -1473,9 +1473,9 @@
       <c r="B13" s="32"/>
       <c r="C13" s="25"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
       <c r="H13" s="54"/>
       <c r="I13" s="36"/>
       <c r="J13" s="25"/>
@@ -1549,31 +1549,31 @@
       <c r="Q16" s="25"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="93" t="s">
+      <c r="C17" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="87" t="s">
+      <c r="F17" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="87" t="s">
+      <c r="G17" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="87" t="s">
+      <c r="H17" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="87" t="s">
+      <c r="I17" s="88" t="s">
         <v>23</v>
       </c>
       <c r="J17" s="25"/>
@@ -1586,15 +1586,15 @@
       <c r="Q17" s="25"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="88"/>
-      <c r="I18" s="89"/>
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
@@ -31678,8 +31678,8 @@
   </sheetPr>
   <dimension ref="B1:N334"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -31737,7 +31737,7 @@
     <row r="5" spans="2:14" ht="18" customHeight="1">
       <c r="B5" s="78"/>
       <c r="C5" s="75"/>
-      <c r="D5" s="96" t="s">
+      <c r="D5" s="101" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="97"/>
@@ -31770,11 +31770,11 @@
       <c r="D7" s="75"/>
       <c r="E7" s="75"/>
       <c r="F7" s="75"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
       <c r="L7" s="76"/>
     </row>
     <row r="8" spans="2:14" ht="15" customHeight="1">
@@ -31783,64 +31783,64 @@
       <c r="D8" s="75"/>
       <c r="E8" s="75"/>
       <c r="F8" s="75"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="104"/>
+      <c r="K8" s="104"/>
       <c r="L8" s="76"/>
       <c r="N8" s="86"/>
     </row>
     <row r="9" spans="2:14" ht="15" customHeight="1">
       <c r="B9" s="78"/>
-      <c r="C9" s="107"/>
+      <c r="C9" s="87"/>
       <c r="D9" s="75"/>
       <c r="E9" s="75"/>
       <c r="F9" s="75"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="104"/>
       <c r="L9" s="76"/>
     </row>
     <row r="10" spans="2:14" ht="15" customHeight="1">
       <c r="B10" s="78"/>
-      <c r="C10" s="107"/>
+      <c r="C10" s="87"/>
       <c r="D10" s="75"/>
       <c r="E10" s="75"/>
       <c r="F10" s="75"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="100"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="100"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="104"/>
+      <c r="J10" s="104"/>
+      <c r="K10" s="104"/>
       <c r="L10" s="76"/>
     </row>
     <row r="11" spans="2:14" ht="15" customHeight="1">
       <c r="B11" s="78"/>
-      <c r="C11" s="107"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="75"/>
       <c r="E11" s="75"/>
       <c r="F11" s="75"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="76"/>
     </row>
     <row r="12" spans="2:14" ht="15" customHeight="1">
       <c r="B12" s="78"/>
-      <c r="C12" s="107"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="75"/>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
       <c r="L12" s="76"/>
     </row>
     <row r="13" spans="2:14" ht="15" customHeight="1">
@@ -31849,11 +31849,11 @@
       <c r="D13" s="75"/>
       <c r="E13" s="75"/>
       <c r="F13" s="75"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="100"/>
+      <c r="G13" s="104"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
       <c r="L13" s="76"/>
     </row>
     <row r="14" spans="2:14" ht="24.75" customHeight="1">
@@ -31862,26 +31862,26 @@
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="104"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
       <c r="L14" s="76"/>
     </row>
     <row r="15" spans="2:14" ht="25.5" customHeight="1" thickBot="1">
       <c r="B15" s="78"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="102"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
       <c r="L15" s="76"/>
     </row>
     <row r="16" spans="2:14" ht="50.1" customHeight="1">
@@ -31890,15 +31890,15 @@
       <c r="D16" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="103" t="s">
+      <c r="E16" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="103"/>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
       <c r="L16" s="76"/>
     </row>
     <row r="17" spans="2:12" ht="50.1" customHeight="1">
@@ -31907,15 +31907,15 @@
       <c r="D17" s="77" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="95"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
       <c r="L17" s="76"/>
     </row>
     <row r="18" spans="2:12" ht="50.1" customHeight="1">
@@ -31924,15 +31924,15 @@
       <c r="D18" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
       <c r="L18" s="76"/>
     </row>
     <row r="19" spans="2:12" ht="50.1" customHeight="1">
@@ -31940,15 +31940,15 @@
       <c r="D19" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
       <c r="L19" s="76"/>
     </row>
     <row r="20" spans="2:12" ht="50.1" customHeight="1">
@@ -31956,15 +31956,15 @@
       <c r="D20" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="95" t="s">
+      <c r="E20" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
       <c r="L20" s="76"/>
     </row>
     <row r="21" spans="2:12" ht="50.1" customHeight="1">
@@ -31972,15 +31972,15 @@
       <c r="D21" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="95" t="s">
+      <c r="E21" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
       <c r="L21" s="76"/>
     </row>
     <row r="22" spans="2:12" ht="50.1" customHeight="1">
@@ -31988,15 +31988,15 @@
       <c r="D22" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="95" t="s">
+      <c r="E22" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="100"/>
+      <c r="K22" s="100"/>
       <c r="L22" s="76"/>
     </row>
     <row r="23" spans="2:12" ht="50.1" customHeight="1">
@@ -32004,15 +32004,15 @@
       <c r="D23" s="77" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="95" t="s">
+      <c r="E23" s="100" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="95"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="100"/>
+      <c r="I23" s="100"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="100"/>
       <c r="L23" s="76"/>
     </row>
     <row r="24" spans="2:12" ht="50.1" customHeight="1">
@@ -32020,15 +32020,15 @@
       <c r="D24" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="95" t="s">
+      <c r="E24" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
-      <c r="H24" s="95"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="95"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="100"/>
+      <c r="K24" s="100"/>
       <c r="L24" s="76"/>
     </row>
     <row r="25" spans="2:12" ht="50.1" customHeight="1">
@@ -32036,15 +32036,15 @@
       <c r="D25" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="105" t="s">
+      <c r="E25" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="106"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="106"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
       <c r="L25" s="76"/>
     </row>
     <row r="26" spans="2:12" ht="50.1" customHeight="1">
@@ -32052,22 +32052,22 @@
       <c r="D26" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="105" t="s">
+      <c r="E26" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="106"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
       <c r="L26" s="76"/>
     </row>
     <row r="27" spans="2:12" ht="50.1" customHeight="1">
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
       <c r="D27" s="79"/>
-      <c r="E27" s="104"/>
+      <c r="E27" s="96"/>
       <c r="F27" s="97"/>
       <c r="G27" s="97"/>
       <c r="H27" s="97"/>
@@ -35837,11 +35837,6 @@
     <row r="334" spans="2:12" ht="50.1" customHeight="1"/>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="E27:K27"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="E23:K23"/>
-    <mergeCell ref="E24:K24"/>
     <mergeCell ref="E21:K21"/>
     <mergeCell ref="E22:K22"/>
     <mergeCell ref="D5:J5"/>
@@ -35853,6 +35848,11 @@
     <mergeCell ref="E18:K18"/>
     <mergeCell ref="E17:K17"/>
     <mergeCell ref="E16:K16"/>
+    <mergeCell ref="E27:K27"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="E23:K23"/>
+    <mergeCell ref="E24:K24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{D83DC5D1-8AEE-4523-A071-C432E3A19226}"/>
